--- a/GMW/BROObject - GMW IMBRO datafile NL (v1.x).xlsx
+++ b/GMW/BROObject - GMW IMBRO datafile NL (v1.x).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/GitHub/BRO-Spreadsheet-en-tabelformat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trefo\OneDrive - Trefoil Hydrology\GitHub\BRO-Spreadsheet-en-tabelformat\GMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{B2B2B6C2-F56B-4149-8FD3-56B22F0FB87D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83946D85-C950-4FE2-A392-EF95845BEDAC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ED2DD1-39A5-4646-9597-FFCAD7CA7286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="194">
   <si>
     <t>Format Name</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>elektrodepositie</t>
+  </si>
+  <si>
+    <t>buismateriaal</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1472,8 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1820,12 +1823,6 @@
           </x14:formula1>
           <xm:sqref>L11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60DBC67C-2722-4BF1-BCBD-0CAD0E672119}">
-          <x14:formula1>
-            <xm:f>Waardelijsten!$E$2:$E$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>N11</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57C6B4E6-5591-4EFA-8527-82EB5E59428F}">
           <x14:formula1>
             <xm:f>Waardelijsten!$F$2:$F$3</xm:f>
@@ -1837,6 +1834,12 @@
             <xm:f>Waardelijsten!$G$2:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>S11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60DBC67C-2722-4BF1-BCBD-0CAD0E672119}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$E$2:$E$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>N11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1851,8 +1854,8 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4"/>
@@ -1913,7 +1916,7 @@
         <v>176</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>177</v>
@@ -2297,7 +2300,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2538,7 +2541,7 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
@@ -2573,7 +2576,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>77</v>
@@ -2599,7 +2602,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>

--- a/GMW/BROObject - GMW IMBRO datafile NL (v1.x).xlsx
+++ b/GMW/BROObject - GMW IMBRO datafile NL (v1.x).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trefo\OneDrive - Trefoil Hydrology\GitHub\BRO-Spreadsheet-en-tabelformat\GMW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/DocumentenSVN/BRO-Spreadsheet-en-tabelformat/GMW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ED2DD1-39A5-4646-9597-FFCAD7CA7286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A1ED2DD1-39A5-4646-9597-FFCAD7CA7286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B9087D-49E1-4472-B1AC-3DF60A8C81CB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
+    <workbookView xWindow="34200" yWindow="2445" windowWidth="13830" windowHeight="7170" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Put" sheetId="5" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="197">
   <si>
     <t>Format Name</t>
   </si>
@@ -456,12 +456,6 @@
     <t>maaiveldVerlegd</t>
   </si>
   <si>
-    <t>nieuweBepalingMaaiveld</t>
-  </si>
-  <si>
-    <t>nieuweBepalingPosities</t>
-  </si>
-  <si>
     <t>onderhouderVeranderd</t>
   </si>
   <si>
@@ -664,6 +658,21 @@
   </si>
   <si>
     <t>buismateriaal</t>
+  </si>
+  <si>
+    <t>inmetenPosities</t>
+  </si>
+  <si>
+    <t>inmetenMaaiveld</t>
+  </si>
+  <si>
+    <t>positiesVeranderdNatuurlijkProces</t>
+  </si>
+  <si>
+    <t>maaiveldVeranderdNatuurlijkProces</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -894,98 +903,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1114,28 +1037,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1472,9 +1374,7 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1515,8 +1415,8 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42">
-        <v>1.01</v>
+      <c r="B2" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1558,19 +1458,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" t="s">
         <v>164</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>166</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="5"/>
@@ -1580,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1618,58 +1518,58 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="35" t="s">
+      <c r="K9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="P9" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+      <c r="S9" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1">
@@ -1741,7 +1641,7 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>44</v>
@@ -1751,7 +1651,7 @@
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J11" s="14">
         <v>27376655</v>
@@ -1770,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R11" s="20" t="s">
         <v>71</v>
@@ -1854,9 +1754,7 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4"/>
   <cols>
@@ -1881,63 +1779,63 @@
     <col min="19" max="19" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="44" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:19" s="44" customFormat="1">
       <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="S1" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19.05" customHeight="1">
@@ -1954,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>12</v>
@@ -1993,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S2" s="39" t="s">
         <v>10</v>
@@ -2010,13 +1908,13 @@
         <v>84</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="20">
         <v>32</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>86</v>
@@ -2046,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 F3" xr:uid="{F64689FA-0EA6-427C-9FE1-22799734D4DE}">
       <formula1>"Ja,Nee"</formula1>
     </dataValidation>
@@ -2064,7 +1962,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14AA8393-58E3-40D3-A0A8-E594B74178C2}">
           <x14:formula1>
             <xm:f>Waardelijsten!$M$2:$M$16</xm:f>
@@ -2124,59 +2022,254 @@
   <sheetPr>
     <tabColor rgb="FF005E6A"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="49" t="s">
+      <c r="T1" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
+      <c r="D2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="36" t="s">
         <v>141</v>
       </c>
+      <c r="N2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46">
+        <v>43084</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3" xr:uid="{FC4951C7-3887-4E8B-BE8D-1FC6AE4731EC}">
+      <formula1>"Ja,Nee"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{060140A5-BDC0-4EDF-8529-8A40DB9675E2}">
           <x14:formula1>
-            <xm:f>Waardelijsten!$Q$2:$Q$15</xm:f>
+            <xm:f>Waardelijsten!$Q$2:$Q$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C3:F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{339B80F9-C2AE-4CC6-9DD0-9A2BC3828D68}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$E$2:$E$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:I3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21D071C8-B354-41D1-AF47-DF94796256F9}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A04B72B-8AA0-4D4E-A196-A03F1EAB0602}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$J$2:$J$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{675924D0-B9E0-4F64-A9D4-BF1AE2164D55}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B7C0E72-FC11-4DDA-8DD2-15CAAED7CE97}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$L$2:$L$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>O3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAD7EF5D-945A-4224-B09C-A35593B8E167}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$M$2:$M$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE606FE1-080A-48F3-9F6D-EC8556B87DFF}">
+          <x14:formula1>
+            <xm:f>Waardelijsten!$P$2:$P$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>U3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2191,9 +2284,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2206,31 +2297,31 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="19.05" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2256,7 +2347,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="28"/>
       <c r="C3" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -2299,9 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2379,7 +2468,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2427,12 +2516,12 @@
         <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2480,12 +2569,12 @@
         <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2524,12 +2613,12 @@
         <v>115</v>
       </c>
       <c r="Q4" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2547,7 +2636,7 @@
         <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>63</v>
@@ -2559,12 +2648,12 @@
         <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2591,12 +2680,12 @@
         <v>101</v>
       </c>
       <c r="Q6" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2617,12 +2706,12 @@
         <v>102</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -2640,12 +2729,12 @@
         <v>103</v>
       </c>
       <c r="Q8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
@@ -2663,7 +2752,7 @@
         <v>104</v>
       </c>
       <c r="Q9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2683,7 +2772,7 @@
         <v>105</v>
       </c>
       <c r="Q10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2700,7 +2789,7 @@
         <v>106</v>
       </c>
       <c r="Q11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2717,7 +2806,7 @@
         <v>107</v>
       </c>
       <c r="Q12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2731,7 +2820,7 @@
         <v>108</v>
       </c>
       <c r="Q13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2739,22 +2828,28 @@
         <v>109</v>
       </c>
       <c r="Q14" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="M15" t="s">
         <v>110</v>
       </c>
+      <c r="Q15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="M16" t="s">
         <v>111</v>
       </c>
+      <c r="Q16" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/GMW/BROObject - GMW IMBRO datafile NL (v1.x).xlsx
+++ b/GMW/BROObject - GMW IMBRO datafile NL (v1.x).xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/DocumentenSVN/BRO-Spreadsheet-en-tabelformat/GMW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/GitHub/BRO-Spreadsheet-en-tabelformat/GMW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A1ED2DD1-39A5-4646-9597-FFCAD7CA7286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B9087D-49E1-4472-B1AC-3DF60A8C81CB}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{A1ED2DD1-39A5-4646-9597-FFCAD7CA7286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20DA7C4-8EAB-4839-8302-EE0784B6C32D}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="2445" windowWidth="13830" windowHeight="7170" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Put" sheetId="5" r:id="rId1"/>
-    <sheet name="Buis" sheetId="3" r:id="rId2"/>
-    <sheet name="Historie" sheetId="7" r:id="rId3"/>
-    <sheet name="Geoohmkabel" sheetId="1" r:id="rId4"/>
-    <sheet name="Waardelijsten" sheetId="6" r:id="rId5"/>
+    <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
+    <sheet name="Put" sheetId="5" r:id="rId2"/>
+    <sheet name="Buis" sheetId="3" r:id="rId3"/>
+    <sheet name="Historie" sheetId="7" r:id="rId4"/>
+    <sheet name="Geoohmkabel" sheetId="1" r:id="rId5"/>
+    <sheet name="Waardelijsten" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
   <si>
     <t>Format Name</t>
   </si>
@@ -673,6 +674,174 @@
   </si>
   <si>
     <t>1.0.2</t>
+  </si>
+  <si>
+    <t>BROObjects - data exemplification format</t>
+  </si>
+  <si>
+    <t>GeoOhmKabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grondwatersmonitoringput (GMW IMBRO) </t>
+  </si>
+  <si>
+    <t>BroID</t>
+  </si>
+  <si>
+    <t>Toelichting:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doel van dit 'data exemplification format' is het geven van inzicht en overzicht over de gegevensinhoud van het desbetreffende registratieobject van de Basisregistratie Ondergrond (BRO).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Details over de aanpak en achtergronden hiervan zijn te vinden in de op GitHub beschikbare documentatie (zie link in de header).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De gegevens die als voorbeeld in dit bestand zijn opgenomen, zijn overgenomen uit het voorbeeldbericht van de BRO (reqistrationRequest.xml). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Van dit format is ook een 'data exchange' variant beschikbaar. De exemplification file is daarbij incompleet qua data-inhoud, maar complet(er) qua data-definities en toelichting.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basis van deze formats is het vereenvoudigde domeinmodel hieronder, dat tot stand is gekomen via groepering van de BRO-entiteiten op basis van hun kardinaliteit (0..*,1, 1..*, etc.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De samenstellende entiteiten per entiteitgroep zijn terug te vinden in respectievelijke tabbladen of sheets verderop in dit bestand.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vereenvoudigd BRO-domeinmodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volledig BRO-domeinmodel (UML-schema) </t>
+  </si>
+  <si>
+    <t>1.x</t>
   </si>
 </sst>
 </file>
@@ -684,7 +853,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +907,36 @@
       <color rgb="FF000000"/>
       <name val="Frutiger LT Std 45 Light"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E6A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -943,7 +1146,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,9 +1161,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -973,8 +1173,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,31 +1186,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,17 +1215,25 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1070,6 +1265,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D11FF90-A7CF-441F-AB8C-2F8F51B00DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3474720"/>
+          <a:ext cx="4663440" cy="2560321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>461896</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>67348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F264FA55-5717-4947-90CA-C9E0F78F0C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88975" y="6513867"/>
+          <a:ext cx="15330981" cy="10656571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,33 +1673,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D90026-AA98-43B5-B632-ADCA4CE05AA2}">
+  <sheetPr>
+    <tabColor theme="3" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="9" spans="1:10" ht="23.25">
+      <c r="A9" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="10.15" customHeight="1">
+      <c r="A16" s="43"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.25">
+      <c r="A17" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="7.9" customHeight="1"/>
+    <row r="33" spans="1:1" ht="23.25">
+      <c r="A33" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AE783B68-9C92-4707-97B6-A9C4E3E54C3D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711730A6-15A8-46D7-88CC-090007B1172D}">
   <sheetPr>
     <tabColor rgb="FF005E6A"/>
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1415,7 +1920,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C2" s="15"/>
@@ -1429,7 +1934,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="15"/>
@@ -1489,7 +1994,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1503,18 +2008,18 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:19" s="22" customFormat="1">
-      <c r="A9" s="24" t="s">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1535,16 +2040,16 @@
       <c r="G9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="30" t="s">
         <v>148</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="30" t="s">
         <v>151</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -1559,7 +2064,7 @@
       <c r="O9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="30" t="s">
         <v>150</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -1572,11 +2077,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="22" customFormat="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1594,16 +2099,16 @@
       <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="35" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="12" t="s">
@@ -1615,10 +2120,10 @@
       <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="12" t="s">
@@ -1631,11 +2136,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="22" customFormat="1" ht="15" thickBot="1">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="14">
         <v>52766179</v>
       </c>
@@ -1649,18 +2154,18 @@
       <c r="G11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="29" t="s">
         <v>129</v>
       </c>
       <c r="J11" s="14">
         <v>27376655</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="14">
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
@@ -1669,16 +2174,16 @@
       <c r="O11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="20" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1747,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27AEB97-42FF-4AED-A291-492ED95EC7A1}">
   <sheetPr>
     <tabColor rgb="FF005E6A"/>
@@ -1756,31 +2261,30 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="44" customFormat="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:19" s="37" customFormat="1">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -1828,72 +2332,72 @@
       <c r="P1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.05" customHeight="1">
+    <row r="2" spans="1:19" ht="19.149999999999999" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1910,7 +2414,7 @@
       <c r="D3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>32</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -1919,7 +2423,7 @@
       <c r="G3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>3420</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -1937,23 +2441,23 @@
       <c r="M3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="26">
         <v>6.64</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="19">
         <v>1</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="32" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="28" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 F3" xr:uid="{F64689FA-0EA6-427C-9FE1-22799734D4DE}">
       <formula1>"Ja,Nee"</formula1>
     </dataValidation>
@@ -1962,7 +2466,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14AA8393-58E3-40D3-A0A8-E594B74178C2}">
           <x14:formula1>
             <xm:f>Waardelijsten!$M$2:$M$16</xm:f>
@@ -2017,7 +2521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C33B6E0-11FB-4FB2-A87B-6C38CCCA4766}">
   <sheetPr>
     <tabColor rgb="FF005E6A"/>
@@ -2026,33 +2530,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2061,63 +2565,63 @@
       <c r="C1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2126,91 +2630,91 @@
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="39">
         <v>43084</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>139</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="31"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="20"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="20"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="31" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2277,7 +2781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4C9787-FA2D-4ED9-A678-3758C211EC85}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -2286,19 +2790,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2320,17 +2824,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.05" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2345,14 +2849,14 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2383,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF907604-FBEC-4DF1-AE5C-41E8A160FDE5}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -2392,77 +2896,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2848,7 +3352,7 @@
       </c>
     </row>
     <row r="17" spans="13:13">
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="34" t="s">
         <v>125</v>
       </c>
     </row>
